--- a/web_ces/indicadores/ARG-M_out.xlsx
+++ b/web_ces/indicadores/ARG-M_out.xlsx
@@ -30048,13 +30048,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AF63FE-8714-40F2-A39F-D26E097660CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3281E18-20A0-4B0C-BB89-EE5EB53802FB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCC0FEA-97EE-42FF-8B8B-6FE948C7D5D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA455E5-C13D-4AF9-9E35-FCE0C1E6932D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CCA721A-510B-4355-A643-81C6EB20FE7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F816E85-9EC4-4544-BDBE-A4F41B475514}"/>
 </file>